--- a/biology/Biologie cellulaire et moléculaire/Vinculine/Vinculine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Vinculine/Vinculine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vinculine est une protéine membranaire et cytosquelettique présente notamment au niveau des plaques d'adhésion focale. Comme la taline ou l'actinine, elle permet la liaison entre les intégrines et le cytosquelette d'actine. Elle est donc impliquée dans l'adhésion ainsi que la migration cellulaire. Son gène est le VCL situé sur le chromosome 10 humain.
